--- a/TestDBFile/nt8001_8位控制器(NT8001)模板文件.xlsx
+++ b/TestDBFile/nt8001_8位控制器(NT8001)模板文件.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="摘要信息" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8325" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8335" uniqueCount="2160">
   <si>
     <t>NT8001系列控制器配置数据导入模板</t>
   </si>
@@ -6548,31 +6548,71 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,0</t>
+    <t>30000,3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,2</t>
+    <t>30000,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,4</t>
+    <t>30000,7</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,6</t>
+    <t>30000,9</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,8</t>
+    <t>30000,11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,10</t>
+    <t>30000,13</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>30000,12</t>
+    <t>30000,15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵敏度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件类型（任意火警）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件类型（非报火警器件）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,25</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7206,10 +7246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7218,9 +7258,10 @@
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>2120</v>
       </c>
@@ -7250,8 +7291,23 @@
       <c r="P1" s="16" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R1" s="16" t="s">
+        <v>2150</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>2152</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>2153</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>2124</v>
       </c>
@@ -7279,8 +7335,9 @@
       <c r="P2" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7305,8 +7362,9 @@
       <c r="P3" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7319,8 +7377,9 @@
       <c r="N4" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7330,8 +7389,9 @@
       <c r="N5" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7344,27 +7404,31 @@
       <c r="J6" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="J7" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -7383,33 +7447,48 @@
       <c r="P10" s="6" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R10" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>2154</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7968,7 +8047,7 @@
   <dimension ref="A1:O1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A263" sqref="A263"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -58937,7 +59016,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59136,8 +59215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59297,7 +59376,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59381,8 +59460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
